--- a/grade8pre.xlsx
+++ b/grade8pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64D5F57-2616-4ABE-9D47-20CD5A973379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65331794-B14D-4273-ABAA-C10EAD2D41E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A40462F2-5737-4101-8C45-391B38FB649F}"/>
   </bookViews>
@@ -33065,8 +33065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9B5DEA-428B-4387-B676-5FCAF2F204FF}">
   <dimension ref="A1:S159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A150" sqref="A136:A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41009,6 +41009,9 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>2014</v>
+      </c>
       <c r="C137" s="2">
         <v>7</v>
       </c>
@@ -41060,6 +41063,9 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>2014</v>
+      </c>
       <c r="C138" s="2">
         <v>7</v>
       </c>
@@ -41113,6 +41119,9 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>2014</v>
+      </c>
       <c r="C139" s="2">
         <v>7</v>
       </c>
@@ -41166,6 +41175,9 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>2014</v>
+      </c>
       <c r="C140" s="2">
         <v>7</v>
       </c>
@@ -41219,6 +41231,9 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>2014</v>
+      </c>
       <c r="C141" s="2">
         <v>7</v>
       </c>
@@ -41272,6 +41287,9 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>2014</v>
+      </c>
       <c r="C142" s="2">
         <v>7</v>
       </c>
@@ -41325,6 +41343,9 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>2014</v>
+      </c>
       <c r="C143" s="2">
         <v>7</v>
       </c>
@@ -41378,6 +41399,9 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>2014</v>
+      </c>
       <c r="C144" s="2">
         <v>7</v>
       </c>
@@ -41430,7 +41454,10 @@
         <v>178.3</v>
       </c>
     </row>
-    <row r="145" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>2014</v>
+      </c>
       <c r="C145" s="2">
         <v>7</v>
       </c>
@@ -41483,7 +41510,10 @@
         <v>176.1</v>
       </c>
     </row>
-    <row r="146" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>2014</v>
+      </c>
       <c r="C146" s="2">
         <v>7</v>
       </c>
@@ -41536,7 +41566,10 @@
         <v>177.5</v>
       </c>
     </row>
-    <row r="147" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>2014</v>
+      </c>
       <c r="C147" s="2">
         <v>7</v>
       </c>
@@ -41589,7 +41622,10 @@
         <v>179.3</v>
       </c>
     </row>
-    <row r="148" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>2014</v>
+      </c>
       <c r="C148" s="2">
         <v>7</v>
       </c>
@@ -41642,7 +41678,10 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="149" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>2014</v>
+      </c>
       <c r="C149" s="2">
         <v>7</v>
       </c>
@@ -41695,7 +41734,10 @@
         <v>173.9</v>
       </c>
     </row>
-    <row r="150" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>2014</v>
+      </c>
       <c r="C150" s="2">
         <v>7</v>
       </c>
@@ -41748,7 +41790,10 @@
         <v>187.8</v>
       </c>
     </row>
-    <row r="151" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>2014</v>
+      </c>
       <c r="C151" s="2">
         <v>7</v>
       </c>
@@ -41801,7 +41846,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>2014</v>
+      </c>
       <c r="C152" s="2">
         <v>7</v>
       </c>
@@ -41854,7 +41902,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>2014</v>
+      </c>
       <c r="C153" s="2">
         <v>7</v>
       </c>
@@ -41907,7 +41958,10 @@
         <v>182.3</v>
       </c>
     </row>
-    <row r="154" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>2014</v>
+      </c>
       <c r="C154" s="2">
         <v>7</v>
       </c>
@@ -41960,7 +42014,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>2014</v>
+      </c>
       <c r="C155" s="2">
         <v>7</v>
       </c>
@@ -42013,7 +42070,10 @@
         <v>183.7</v>
       </c>
     </row>
-    <row r="156" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>2014</v>
+      </c>
       <c r="C156" s="2">
         <v>80</v>
       </c>
@@ -42066,7 +42126,10 @@
         <v>174.1</v>
       </c>
     </row>
-    <row r="157" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>2014</v>
+      </c>
       <c r="C157" s="2">
         <v>80</v>
       </c>
@@ -42119,7 +42182,10 @@
         <v>190.6</v>
       </c>
     </row>
-    <row r="158" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>2014</v>
+      </c>
       <c r="C158" s="2">
         <v>80</v>
       </c>
@@ -42172,7 +42238,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="159" spans="3:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C159" s="5">
         <v>80</v>
       </c>

--- a/grade8pre.xlsx
+++ b/grade8pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65331794-B14D-4273-ABAA-C10EAD2D41E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{029F99B4-BA39-4AFA-86B2-E15C0C230905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A40462F2-5737-4101-8C45-391B38FB649F}"/>
   </bookViews>
@@ -23590,7 +23590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE860D8-EEB1-4020-BC55-0AE095B144F7}">
   <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>

--- a/grade8pre.xlsx
+++ b/grade8pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{029F99B4-BA39-4AFA-86B2-E15C0C230905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20861FA-DDA0-4E73-A16A-41EE2C876DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A40462F2-5737-4101-8C45-391B38FB649F}"/>
   </bookViews>
@@ -33065,8 +33065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9B5DEA-428B-4387-B676-5FCAF2F204FF}">
   <dimension ref="A1:S159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A150" sqref="A136:A158"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135:B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40970,6 +40970,9 @@
       <c r="A136" s="2">
         <v>2014</v>
       </c>
+      <c r="B136" s="2">
+        <v>4</v>
+      </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
@@ -41012,6 +41015,9 @@
       <c r="A137" s="2">
         <v>2014</v>
       </c>
+      <c r="B137" s="2">
+        <v>4</v>
+      </c>
       <c r="C137" s="2">
         <v>7</v>
       </c>
@@ -41066,6 +41072,9 @@
       <c r="A138" s="2">
         <v>2014</v>
       </c>
+      <c r="B138" s="2">
+        <v>4</v>
+      </c>
       <c r="C138" s="2">
         <v>7</v>
       </c>
@@ -41122,6 +41131,9 @@
       <c r="A139" s="2">
         <v>2014</v>
       </c>
+      <c r="B139" s="2">
+        <v>4</v>
+      </c>
       <c r="C139" s="2">
         <v>7</v>
       </c>
@@ -41178,6 +41190,9 @@
       <c r="A140" s="2">
         <v>2014</v>
       </c>
+      <c r="B140" s="2">
+        <v>4</v>
+      </c>
       <c r="C140" s="2">
         <v>7</v>
       </c>
@@ -41234,6 +41249,9 @@
       <c r="A141" s="2">
         <v>2014</v>
       </c>
+      <c r="B141" s="2">
+        <v>4</v>
+      </c>
       <c r="C141" s="2">
         <v>7</v>
       </c>
@@ -41290,6 +41308,9 @@
       <c r="A142" s="2">
         <v>2014</v>
       </c>
+      <c r="B142" s="2">
+        <v>4</v>
+      </c>
       <c r="C142" s="2">
         <v>7</v>
       </c>
@@ -41346,6 +41367,9 @@
       <c r="A143" s="2">
         <v>2014</v>
       </c>
+      <c r="B143" s="2">
+        <v>4</v>
+      </c>
       <c r="C143" s="2">
         <v>7</v>
       </c>
@@ -41402,6 +41426,9 @@
       <c r="A144" s="2">
         <v>2014</v>
       </c>
+      <c r="B144" s="2">
+        <v>4</v>
+      </c>
       <c r="C144" s="2">
         <v>7</v>
       </c>
@@ -41458,6 +41485,9 @@
       <c r="A145" s="2">
         <v>2014</v>
       </c>
+      <c r="B145" s="2">
+        <v>4</v>
+      </c>
       <c r="C145" s="2">
         <v>7</v>
       </c>
@@ -41514,6 +41544,9 @@
       <c r="A146" s="2">
         <v>2014</v>
       </c>
+      <c r="B146" s="2">
+        <v>4</v>
+      </c>
       <c r="C146" s="2">
         <v>7</v>
       </c>
@@ -41570,6 +41603,9 @@
       <c r="A147" s="2">
         <v>2014</v>
       </c>
+      <c r="B147" s="2">
+        <v>4</v>
+      </c>
       <c r="C147" s="2">
         <v>7</v>
       </c>
@@ -41626,6 +41662,9 @@
       <c r="A148" s="2">
         <v>2014</v>
       </c>
+      <c r="B148" s="2">
+        <v>4</v>
+      </c>
       <c r="C148" s="2">
         <v>7</v>
       </c>
@@ -41682,6 +41721,9 @@
       <c r="A149" s="2">
         <v>2014</v>
       </c>
+      <c r="B149" s="2">
+        <v>4</v>
+      </c>
       <c r="C149" s="2">
         <v>7</v>
       </c>
@@ -41738,6 +41780,9 @@
       <c r="A150" s="2">
         <v>2014</v>
       </c>
+      <c r="B150" s="2">
+        <v>4</v>
+      </c>
       <c r="C150" s="2">
         <v>7</v>
       </c>
@@ -41794,6 +41839,9 @@
       <c r="A151" s="2">
         <v>2014</v>
       </c>
+      <c r="B151" s="2">
+        <v>4</v>
+      </c>
       <c r="C151" s="2">
         <v>7</v>
       </c>
@@ -41850,6 +41898,9 @@
       <c r="A152" s="2">
         <v>2014</v>
       </c>
+      <c r="B152" s="2">
+        <v>4</v>
+      </c>
       <c r="C152" s="2">
         <v>7</v>
       </c>
@@ -41906,6 +41957,9 @@
       <c r="A153" s="2">
         <v>2014</v>
       </c>
+      <c r="B153" s="2">
+        <v>4</v>
+      </c>
       <c r="C153" s="2">
         <v>7</v>
       </c>
@@ -41962,6 +42016,9 @@
       <c r="A154" s="2">
         <v>2014</v>
       </c>
+      <c r="B154" s="2">
+        <v>4</v>
+      </c>
       <c r="C154" s="2">
         <v>7</v>
       </c>
@@ -42018,6 +42075,9 @@
       <c r="A155" s="2">
         <v>2014</v>
       </c>
+      <c r="B155" s="2">
+        <v>4</v>
+      </c>
       <c r="C155" s="2">
         <v>7</v>
       </c>
@@ -42074,6 +42134,9 @@
       <c r="A156" s="2">
         <v>2014</v>
       </c>
+      <c r="B156" s="2">
+        <v>4</v>
+      </c>
       <c r="C156" s="2">
         <v>80</v>
       </c>
@@ -42130,6 +42193,9 @@
       <c r="A157" s="2">
         <v>2014</v>
       </c>
+      <c r="B157" s="2">
+        <v>4</v>
+      </c>
       <c r="C157" s="2">
         <v>80</v>
       </c>
@@ -42185,6 +42251,9 @@
     <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>2014</v>
+      </c>
+      <c r="B158" s="2">
+        <v>4</v>
       </c>
       <c r="C158" s="2">
         <v>80</v>

--- a/grade8pre.xlsx
+++ b/grade8pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20861FA-DDA0-4E73-A16A-41EE2C876DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{642476C8-AADF-4E62-9AFF-92F284BD7D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A40462F2-5737-4101-8C45-391B38FB649F}"/>
   </bookViews>
@@ -33065,8 +33065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9B5DEA-428B-4387-B676-5FCAF2F204FF}">
   <dimension ref="A1:S159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:B158"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
